--- a/Code/Results/Cases/Case_2_171/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_171/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018341228081107</v>
+        <v>1.044563904612918</v>
       </c>
       <c r="D2">
-        <v>1.034626169891572</v>
+        <v>1.050569963871977</v>
       </c>
       <c r="E2">
-        <v>1.029167680140539</v>
+        <v>1.056615208865503</v>
       </c>
       <c r="F2">
-        <v>1.038749545293612</v>
+        <v>1.063328348071551</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049983837275265</v>
+        <v>1.042559004350166</v>
       </c>
       <c r="J2">
-        <v>1.039986861099185</v>
+        <v>1.049628316352711</v>
       </c>
       <c r="K2">
-        <v>1.045623297374922</v>
+        <v>1.053323874959923</v>
       </c>
       <c r="L2">
-        <v>1.040235085099569</v>
+        <v>1.059352434032566</v>
       </c>
       <c r="M2">
-        <v>1.049694196143891</v>
+        <v>1.066047284487678</v>
       </c>
       <c r="N2">
-        <v>1.016942287188815</v>
+        <v>1.020393815394375</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02278885720254</v>
+        <v>1.045500130253592</v>
       </c>
       <c r="D3">
-        <v>1.037985262732738</v>
+        <v>1.051303723881312</v>
       </c>
       <c r="E3">
-        <v>1.033246236039127</v>
+        <v>1.05756075773059</v>
       </c>
       <c r="F3">
-        <v>1.042845361377827</v>
+        <v>1.064261744130012</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051313607668972</v>
+        <v>1.042789179414156</v>
       </c>
       <c r="J3">
-        <v>1.042676981912823</v>
+        <v>1.050211914009702</v>
       </c>
       <c r="K3">
-        <v>1.048154132723229</v>
+        <v>1.053870310581533</v>
       </c>
       <c r="L3">
-        <v>1.043470688436152</v>
+        <v>1.060111321250791</v>
       </c>
       <c r="M3">
-        <v>1.052957877127237</v>
+        <v>1.066795372704111</v>
       </c>
       <c r="N3">
-        <v>1.017856451177914</v>
+        <v>1.020590352569498</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.025608817364876</v>
+        <v>1.046106301772221</v>
       </c>
       <c r="D4">
-        <v>1.04011853716105</v>
+        <v>1.051778886939308</v>
       </c>
       <c r="E4">
-        <v>1.035842332186375</v>
+        <v>1.058173828247076</v>
       </c>
       <c r="F4">
-        <v>1.045450028634299</v>
+        <v>1.064866690860507</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052148287999855</v>
+        <v>1.042937135083555</v>
       </c>
       <c r="J4">
-        <v>1.044379381853722</v>
+        <v>1.050589274236392</v>
       </c>
       <c r="K4">
-        <v>1.049755727303779</v>
+        <v>1.05422359261112</v>
       </c>
       <c r="L4">
-        <v>1.045526592657003</v>
+        <v>1.060602981310505</v>
       </c>
       <c r="M4">
-        <v>1.055029193911678</v>
+        <v>1.067279781652605</v>
       </c>
       <c r="N4">
-        <v>1.01843473673717</v>
+        <v>1.02071736895573</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026780930273482</v>
+        <v>1.046361224082483</v>
       </c>
       <c r="D5">
-        <v>1.041006019467473</v>
+        <v>1.051978733027154</v>
       </c>
       <c r="E5">
-        <v>1.036923792549069</v>
+        <v>1.058431857876397</v>
       </c>
       <c r="F5">
-        <v>1.046534481283469</v>
+        <v>1.065121242973447</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052493161780126</v>
+        <v>1.042999099787995</v>
       </c>
       <c r="J5">
-        <v>1.04508617375704</v>
+        <v>1.05074785173712</v>
       </c>
       <c r="K5">
-        <v>1.050420658705356</v>
+        <v>1.054372039972501</v>
       </c>
       <c r="L5">
-        <v>1.04638214855256</v>
+        <v>1.060809819881572</v>
       </c>
       <c r="M5">
-        <v>1.055890580802901</v>
+        <v>1.067483508779871</v>
       </c>
       <c r="N5">
-        <v>1.018674766786389</v>
+        <v>1.020770728837851</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026976960909325</v>
+        <v>1.04640403178009</v>
       </c>
       <c r="D6">
-        <v>1.041154491981346</v>
+        <v>1.0520122931589</v>
       </c>
       <c r="E6">
-        <v>1.037104801771191</v>
+        <v>1.058475199432259</v>
       </c>
       <c r="F6">
-        <v>1.046715957394822</v>
+        <v>1.065163996986876</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052550718292284</v>
+        <v>1.043009490088299</v>
       </c>
       <c r="J6">
-        <v>1.045204333090271</v>
+        <v>1.050774473773618</v>
       </c>
       <c r="K6">
-        <v>1.050531819190277</v>
+        <v>1.054396960663526</v>
       </c>
       <c r="L6">
-        <v>1.046525295471651</v>
+        <v>1.060844557437701</v>
       </c>
       <c r="M6">
-        <v>1.05603466906033</v>
+        <v>1.067517720211765</v>
       </c>
       <c r="N6">
-        <v>1.018714890695981</v>
+        <v>1.020779685968633</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.025624531227542</v>
+        <v>1.046109707712833</v>
       </c>
       <c r="D7">
-        <v>1.040130432082665</v>
+        <v>1.051781556950232</v>
       </c>
       <c r="E7">
-        <v>1.035856821303164</v>
+        <v>1.058177274895058</v>
       </c>
       <c r="F7">
-        <v>1.045464560121178</v>
+        <v>1.064870091286459</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052152919712034</v>
+        <v>1.042937963986389</v>
       </c>
       <c r="J7">
-        <v>1.044388860653263</v>
+        <v>1.050591393412271</v>
       </c>
       <c r="K7">
-        <v>1.049764644756018</v>
+        <v>1.054225576457745</v>
       </c>
       <c r="L7">
-        <v>1.04553805862775</v>
+        <v>1.060605744530591</v>
       </c>
       <c r="M7">
-        <v>1.055040740330006</v>
+        <v>1.067282503545286</v>
       </c>
       <c r="N7">
-        <v>1.01843795602325</v>
+        <v>1.020718082102124</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.019856618702947</v>
+        <v>1.04488022904856</v>
       </c>
       <c r="D8">
-        <v>1.035769915606685</v>
+        <v>1.050817863821349</v>
       </c>
       <c r="E8">
-        <v>1.030555170852942</v>
+        <v>1.056934504525384</v>
       </c>
       <c r="F8">
-        <v>1.040143413713893</v>
+        <v>1.063643590486661</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050438663963377</v>
+        <v>1.042636996305927</v>
       </c>
       <c r="J8">
-        <v>1.04090409408827</v>
+        <v>1.049825600522896</v>
       </c>
       <c r="K8">
-        <v>1.046486215863432</v>
+        <v>1.053508606625729</v>
       </c>
       <c r="L8">
-        <v>1.041336567514629</v>
+        <v>1.05960877665347</v>
       </c>
       <c r="M8">
-        <v>1.050805745079707</v>
+        <v>1.066300032075444</v>
       </c>
       <c r="N8">
-        <v>1.017254029158429</v>
+        <v>1.020460268185325</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009226365370934</v>
+        <v>1.042716615432952</v>
       </c>
       <c r="D9">
-        <v>1.027763510403922</v>
+        <v>1.049122616201734</v>
       </c>
       <c r="E9">
-        <v>1.020866786702518</v>
+        <v>1.05475412143734</v>
       </c>
       <c r="F9">
-        <v>1.030400257024223</v>
+        <v>1.061489884611289</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047213737698941</v>
+        <v>1.042099147720163</v>
       </c>
       <c r="J9">
-        <v>1.034457471561205</v>
+        <v>1.048474176306849</v>
       </c>
       <c r="K9">
-        <v>1.040421649515893</v>
+        <v>1.052242972270278</v>
       </c>
       <c r="L9">
-        <v>1.033630149539184</v>
+        <v>1.057856710526505</v>
       </c>
       <c r="M9">
-        <v>1.0430186409742</v>
+        <v>1.064571493291316</v>
       </c>
       <c r="N9">
-        <v>1.015062200531111</v>
+        <v>1.020004787031799</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001792316946326</v>
+        <v>1.041276204106728</v>
       </c>
       <c r="D10">
-        <v>1.022188116696237</v>
+        <v>1.047994482265507</v>
       </c>
       <c r="E10">
-        <v>1.01415017610168</v>
+        <v>1.053307027648844</v>
       </c>
       <c r="F10">
-        <v>1.023632603739507</v>
+        <v>1.060059236706445</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044916365897042</v>
+        <v>1.041735567279536</v>
       </c>
       <c r="J10">
-        <v>1.0299350037684</v>
+        <v>1.047571938062598</v>
       </c>
       <c r="K10">
-        <v>1.03616799002792</v>
+        <v>1.051397766320088</v>
       </c>
       <c r="L10">
-        <v>1.028268559856792</v>
+        <v>1.056691908905542</v>
       </c>
       <c r="M10">
-        <v>1.037587883261574</v>
+        <v>1.063421020828241</v>
       </c>
       <c r="N10">
-        <v>1.013523746821365</v>
+        <v>1.019700362262414</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9984828145883984</v>
+        <v>1.040652975785024</v>
       </c>
       <c r="D11">
-        <v>1.019712484944085</v>
+        <v>1.047506486160845</v>
       </c>
       <c r="E11">
-        <v>1.011174704086048</v>
+        <v>1.052681977832701</v>
       </c>
       <c r="F11">
-        <v>1.020631384805933</v>
+        <v>1.059440990596968</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043884163971924</v>
+        <v>1.041576949983155</v>
       </c>
       <c r="J11">
-        <v>1.027918846740285</v>
+        <v>1.047180964730293</v>
       </c>
       <c r="K11">
-        <v>1.034271987302478</v>
+        <v>1.051031450921385</v>
       </c>
       <c r="L11">
-        <v>1.025888914557662</v>
+        <v>1.056188320576029</v>
       </c>
       <c r="M11">
-        <v>1.035174436670063</v>
+        <v>1.062923315701244</v>
       </c>
       <c r="N11">
-        <v>1.012837754348367</v>
+        <v>1.01956836491176</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9972391730571452</v>
+        <v>1.040421553945389</v>
       </c>
       <c r="D12">
-        <v>1.018783232911761</v>
+        <v>1.04732529811328</v>
       </c>
       <c r="E12">
-        <v>1.010058847716073</v>
+        <v>1.052450040946865</v>
       </c>
       <c r="F12">
-        <v>1.019505398519263</v>
+        <v>1.059211533211356</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043494910664699</v>
+        <v>1.041517854981578</v>
       </c>
       <c r="J12">
-        <v>1.027160837382281</v>
+        <v>1.047035695911763</v>
       </c>
       <c r="K12">
-        <v>1.033559211394328</v>
+        <v>1.050895335578932</v>
       </c>
       <c r="L12">
-        <v>1.024995840493065</v>
+        <v>1.056001383555489</v>
       </c>
       <c r="M12">
-        <v>1.034268209672827</v>
+        <v>1.062738515675676</v>
       </c>
       <c r="N12">
-        <v>1.012579828372755</v>
+        <v>1.019519308632694</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9975066000920696</v>
+        <v>1.0404711914018</v>
       </c>
       <c r="D13">
-        <v>1.018983006939584</v>
+        <v>1.047364160129876</v>
       </c>
       <c r="E13">
-        <v>1.010298693065754</v>
+        <v>1.052499781564926</v>
       </c>
       <c r="F13">
-        <v>1.019747442718109</v>
+        <v>1.059260744126751</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043578675213354</v>
+        <v>1.041530539083216</v>
       </c>
       <c r="J13">
-        <v>1.027323852672196</v>
+        <v>1.047066858539402</v>
       </c>
       <c r="K13">
-        <v>1.033712496034617</v>
+        <v>1.050924535006603</v>
       </c>
       <c r="L13">
-        <v>1.025187830287802</v>
+        <v>1.056041476817831</v>
       </c>
       <c r="M13">
-        <v>1.034463048183149</v>
+        <v>1.062778152730477</v>
       </c>
       <c r="N13">
-        <v>1.01263529778271</v>
+        <v>1.019529832568211</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9983803119268922</v>
+        <v>1.04063384489103</v>
       </c>
       <c r="D14">
-        <v>1.019635873165734</v>
+        <v>1.047491507553875</v>
       </c>
       <c r="E14">
-        <v>1.01108268726182</v>
+        <v>1.052662801066774</v>
       </c>
       <c r="F14">
-        <v>1.020538542307318</v>
+        <v>1.059422019760375</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043852108814548</v>
+        <v>1.041572068789473</v>
       </c>
       <c r="J14">
-        <v>1.027856378002925</v>
+        <v>1.047168957655133</v>
       </c>
       <c r="K14">
-        <v>1.034213245048899</v>
+        <v>1.051020200588955</v>
       </c>
       <c r="L14">
-        <v>1.025815282490373</v>
+        <v>1.056172865887567</v>
       </c>
       <c r="M14">
-        <v>1.035099729684342</v>
+        <v>1.062908038642516</v>
       </c>
       <c r="N14">
-        <v>1.012816498542422</v>
+        <v>1.019564310444635</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.998916710558941</v>
+        <v>1.040734070762085</v>
       </c>
       <c r="D15">
-        <v>1.020036827016459</v>
+        <v>1.047569980539865</v>
       </c>
       <c r="E15">
-        <v>1.011564305941612</v>
+        <v>1.052763273869745</v>
       </c>
       <c r="F15">
-        <v>1.021024463218008</v>
+        <v>1.059521411787852</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044019798439802</v>
+        <v>1.041597633109734</v>
       </c>
       <c r="J15">
-        <v>1.028183263046344</v>
+        <v>1.047231858497532</v>
       </c>
       <c r="K15">
-        <v>1.034520632719163</v>
+        <v>1.051079136781241</v>
       </c>
       <c r="L15">
-        <v>1.026200647786878</v>
+        <v>1.056253834714707</v>
       </c>
       <c r="M15">
-        <v>1.035490701668809</v>
+        <v>1.062988074925936</v>
       </c>
       <c r="N15">
-        <v>1.012927724873057</v>
+        <v>1.019585549890386</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.002009988187144</v>
+        <v>1.041317575892687</v>
       </c>
       <c r="D16">
-        <v>1.022351082961991</v>
+        <v>1.048026879466093</v>
       </c>
       <c r="E16">
-        <v>1.014346188001607</v>
+        <v>1.05334854294887</v>
       </c>
       <c r="F16">
-        <v>1.023830246016995</v>
+        <v>1.060100293777883</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044984062387144</v>
+        <v>1.041746069271624</v>
       </c>
       <c r="J16">
-        <v>1.03006755438093</v>
+        <v>1.047597879467741</v>
       </c>
       <c r="K16">
-        <v>1.036292648772158</v>
+        <v>1.05142207047467</v>
       </c>
       <c r="L16">
-        <v>1.028425228647097</v>
+        <v>1.05672534690401</v>
       </c>
       <c r="M16">
-        <v>1.037746712603837</v>
+        <v>1.063454061606118</v>
       </c>
       <c r="N16">
-        <v>1.0135688444531</v>
+        <v>1.019709118743284</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.003925576032636</v>
+        <v>1.041683722198276</v>
       </c>
       <c r="D17">
-        <v>1.023785987315734</v>
+        <v>1.048313613099822</v>
       </c>
       <c r="E17">
-        <v>1.016072839663481</v>
+        <v>1.053716083087756</v>
       </c>
       <c r="F17">
-        <v>1.025570901356446</v>
+        <v>1.060463742466731</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04557874591465</v>
+        <v>1.041838862559116</v>
       </c>
       <c r="J17">
-        <v>1.031233731512822</v>
+        <v>1.047827395537573</v>
       </c>
       <c r="K17">
-        <v>1.037389430881331</v>
+        <v>1.051637094517254</v>
       </c>
       <c r="L17">
-        <v>1.029804802962987</v>
+        <v>1.057021323271671</v>
       </c>
       <c r="M17">
-        <v>1.039144958165274</v>
+        <v>1.06374648591597</v>
       </c>
       <c r="N17">
-        <v>1.013965597518718</v>
+        <v>1.019786582445908</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005034226171817</v>
+        <v>1.04189733532726</v>
       </c>
       <c r="D18">
-        <v>1.024617046385985</v>
+        <v>1.048480907488575</v>
       </c>
       <c r="E18">
-        <v>1.017073527554749</v>
+        <v>1.053930612622336</v>
       </c>
       <c r="F18">
-        <v>1.026579407004972</v>
+        <v>1.060675854896743</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045922019776878</v>
+        <v>1.04189287298713</v>
       </c>
       <c r="J18">
-        <v>1.031908386365379</v>
+        <v>1.047961239544468</v>
       </c>
       <c r="K18">
-        <v>1.038023968714648</v>
+        <v>1.051762481955806</v>
       </c>
       <c r="L18">
-        <v>1.030603916884362</v>
+        <v>1.057194036311963</v>
       </c>
       <c r="M18">
-        <v>1.039954592501964</v>
+        <v>1.063917096088853</v>
       </c>
       <c r="N18">
-        <v>1.014195113204819</v>
+        <v>1.019831748377179</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005410796811386</v>
+        <v>1.041970179690206</v>
       </c>
       <c r="D19">
-        <v>1.02489942940971</v>
+        <v>1.048537958570586</v>
       </c>
       <c r="E19">
-        <v>1.017413660177743</v>
+        <v>1.054003786980948</v>
       </c>
       <c r="F19">
-        <v>1.02692214639844</v>
+        <v>1.06074819988971</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046038464106424</v>
+        <v>1.041911269740604</v>
       </c>
       <c r="J19">
-        <v>1.032137496053072</v>
+        <v>1.048006871974296</v>
       </c>
       <c r="K19">
-        <v>1.038239459473278</v>
+        <v>1.051805230300003</v>
       </c>
       <c r="L19">
-        <v>1.030875462702305</v>
+        <v>1.057252939687191</v>
       </c>
       <c r="M19">
-        <v>1.040229663269521</v>
+        <v>1.063975277180404</v>
       </c>
       <c r="N19">
-        <v>1.014273053276668</v>
+        <v>1.019847145840845</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003720954616234</v>
+        <v>1.041644433381329</v>
       </c>
       <c r="D20">
-        <v>1.023632648776484</v>
+        <v>1.048282844370704</v>
       </c>
       <c r="E20">
-        <v>1.015888256120615</v>
+        <v>1.0536766340265</v>
       </c>
       <c r="F20">
-        <v>1.025384851720232</v>
+        <v>1.060424735547669</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045515315423196</v>
+        <v>1.041828918539333</v>
       </c>
       <c r="J20">
-        <v>1.031109189429497</v>
+        <v>1.047802773611346</v>
       </c>
       <c r="K20">
-        <v>1.03727229673223</v>
+        <v>1.051614027821898</v>
       </c>
       <c r="L20">
-        <v>1.029657366808372</v>
+        <v>1.056989560039207</v>
       </c>
       <c r="M20">
-        <v>1.038995557187627</v>
+        <v>1.063715106993419</v>
       </c>
       <c r="N20">
-        <v>1.013923227544584</v>
+        <v>1.019778273114183</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9981234278193551</v>
+        <v>1.040585945472598</v>
       </c>
       <c r="D21">
-        <v>1.019443891733063</v>
+        <v>1.047454004818649</v>
       </c>
       <c r="E21">
-        <v>1.010852118624103</v>
+        <v>1.052614789403721</v>
       </c>
       <c r="F21">
-        <v>1.020305897101383</v>
+        <v>1.05937452293981</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043771752737944</v>
+        <v>1.041559844221299</v>
       </c>
       <c r="J21">
-        <v>1.027699817809497</v>
+        <v>1.047138893215416</v>
       </c>
       <c r="K21">
-        <v>1.034066025228161</v>
+        <v>1.050992030818101</v>
       </c>
       <c r="L21">
-        <v>1.025630770276044</v>
+        <v>1.056134171811707</v>
       </c>
       <c r="M21">
-        <v>1.034912516329858</v>
+        <v>1.06286978854212</v>
       </c>
       <c r="N21">
-        <v>1.012763226660349</v>
+        <v>1.019554158300298</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.99452063631492</v>
+        <v>1.039920854387924</v>
       </c>
       <c r="D22">
-        <v>1.016753927659653</v>
+        <v>1.046933317583688</v>
       </c>
       <c r="E22">
-        <v>1.007623879088642</v>
+        <v>1.051948522660767</v>
       </c>
       <c r="F22">
-        <v>1.017047449448912</v>
+        <v>1.058715293730852</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042641550857942</v>
+        <v>1.041389639946591</v>
       </c>
       <c r="J22">
-        <v>1.02550322230836</v>
+        <v>1.046721231625498</v>
       </c>
       <c r="K22">
-        <v>1.03200063541147</v>
+        <v>1.05060067072618</v>
       </c>
       <c r="L22">
-        <v>1.023045803417096</v>
+        <v>1.055597039187753</v>
       </c>
       <c r="M22">
-        <v>1.032288592396896</v>
+        <v>1.062338707804912</v>
       </c>
       <c r="N22">
-        <v>1.012015773795007</v>
+        <v>1.019413094787238</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9964387132025391</v>
+        <v>1.040273391426871</v>
       </c>
       <c r="D23">
-        <v>1.018185429261318</v>
+        <v>1.047209301868312</v>
       </c>
       <c r="E23">
-        <v>1.009341281932534</v>
+        <v>1.052301594168849</v>
       </c>
       <c r="F23">
-        <v>1.018781184468619</v>
+        <v>1.059064660669376</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043243989919988</v>
+        <v>1.041479965594965</v>
       </c>
       <c r="J23">
-        <v>1.02667284970984</v>
+        <v>1.046942665680919</v>
       </c>
       <c r="K23">
-        <v>1.033100362134246</v>
+        <v>1.05080816490235</v>
       </c>
       <c r="L23">
-        <v>1.024421351414586</v>
+        <v>1.055881718142756</v>
       </c>
       <c r="M23">
-        <v>1.033685127805704</v>
+        <v>1.062620205022026</v>
       </c>
       <c r="N23">
-        <v>1.012413778405737</v>
+        <v>1.019487889663869</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003813440995361</v>
+        <v>1.041662186163891</v>
       </c>
       <c r="D24">
-        <v>1.023701954050321</v>
+        <v>1.048296747288303</v>
       </c>
       <c r="E24">
-        <v>1.015971681336731</v>
+        <v>1.05369445889715</v>
       </c>
       <c r="F24">
-        <v>1.025468940482101</v>
+        <v>1.060442360727933</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045543988025116</v>
+        <v>1.041833412167127</v>
       </c>
       <c r="J24">
-        <v>1.031165481776943</v>
+        <v>1.047813899289134</v>
       </c>
       <c r="K24">
-        <v>1.037325240643614</v>
+        <v>1.051624450768977</v>
       </c>
       <c r="L24">
-        <v>1.029724004036133</v>
+        <v>1.057003912245001</v>
       </c>
       <c r="M24">
-        <v>1.039063083376957</v>
+        <v>1.063729285641924</v>
       </c>
       <c r="N24">
-        <v>1.013942378584965</v>
+        <v>1.019782027797119</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.012033145303103</v>
+        <v>1.043275613570529</v>
       </c>
       <c r="D25">
-        <v>1.029873662006368</v>
+        <v>1.049560526162298</v>
       </c>
       <c r="E25">
-        <v>1.023414967688692</v>
+        <v>1.055316664019496</v>
       </c>
       <c r="F25">
-        <v>1.032965095952105</v>
+        <v>1.062045766509188</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048072660194123</v>
+        <v>1.042239080648844</v>
       </c>
       <c r="J25">
-        <v>1.036162223037828</v>
+        <v>1.048823783081921</v>
       </c>
       <c r="K25">
-        <v>1.042025275431462</v>
+        <v>1.052570428835151</v>
       </c>
       <c r="L25">
-        <v>1.035660353806426</v>
+        <v>1.058309095237997</v>
       </c>
       <c r="M25">
-        <v>1.045072350633765</v>
+        <v>1.065018034615367</v>
       </c>
       <c r="N25">
-        <v>1.015641972685511</v>
+        <v>1.020122677330079</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_171/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_171/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044563904612918</v>
+        <v>1.018341228081108</v>
       </c>
       <c r="D2">
-        <v>1.050569963871977</v>
+        <v>1.034626169891572</v>
       </c>
       <c r="E2">
-        <v>1.056615208865503</v>
+        <v>1.029167680140539</v>
       </c>
       <c r="F2">
-        <v>1.063328348071551</v>
+        <v>1.038749545293612</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042559004350166</v>
+        <v>1.049983837275265</v>
       </c>
       <c r="J2">
-        <v>1.049628316352711</v>
+        <v>1.039986861099185</v>
       </c>
       <c r="K2">
-        <v>1.053323874959923</v>
+        <v>1.045623297374922</v>
       </c>
       <c r="L2">
-        <v>1.059352434032566</v>
+        <v>1.040235085099569</v>
       </c>
       <c r="M2">
-        <v>1.066047284487678</v>
+        <v>1.049694196143891</v>
       </c>
       <c r="N2">
-        <v>1.020393815394375</v>
+        <v>1.016942287188815</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045500130253592</v>
+        <v>1.02278885720254</v>
       </c>
       <c r="D3">
-        <v>1.051303723881312</v>
+        <v>1.037985262732739</v>
       </c>
       <c r="E3">
-        <v>1.05756075773059</v>
+        <v>1.033246236039127</v>
       </c>
       <c r="F3">
-        <v>1.064261744130012</v>
+        <v>1.042845361377827</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042789179414156</v>
+        <v>1.051313607668973</v>
       </c>
       <c r="J3">
-        <v>1.050211914009702</v>
+        <v>1.042676981912824</v>
       </c>
       <c r="K3">
-        <v>1.053870310581533</v>
+        <v>1.04815413272323</v>
       </c>
       <c r="L3">
-        <v>1.060111321250791</v>
+        <v>1.043470688436152</v>
       </c>
       <c r="M3">
-        <v>1.066795372704111</v>
+        <v>1.052957877127237</v>
       </c>
       <c r="N3">
-        <v>1.020590352569498</v>
+        <v>1.017856451177915</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046106301772221</v>
+        <v>1.025608817364875</v>
       </c>
       <c r="D4">
-        <v>1.051778886939308</v>
+        <v>1.04011853716105</v>
       </c>
       <c r="E4">
-        <v>1.058173828247076</v>
+        <v>1.035842332186374</v>
       </c>
       <c r="F4">
-        <v>1.064866690860507</v>
+        <v>1.045450028634299</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042937135083555</v>
+        <v>1.052148287999855</v>
       </c>
       <c r="J4">
-        <v>1.050589274236392</v>
+        <v>1.044379381853721</v>
       </c>
       <c r="K4">
-        <v>1.05422359261112</v>
+        <v>1.049755727303779</v>
       </c>
       <c r="L4">
-        <v>1.060602981310505</v>
+        <v>1.045526592657003</v>
       </c>
       <c r="M4">
-        <v>1.067279781652605</v>
+        <v>1.055029193911677</v>
       </c>
       <c r="N4">
-        <v>1.02071736895573</v>
+        <v>1.01843473673717</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046361224082483</v>
+        <v>1.026780930273482</v>
       </c>
       <c r="D5">
-        <v>1.051978733027154</v>
+        <v>1.041006019467473</v>
       </c>
       <c r="E5">
-        <v>1.058431857876397</v>
+        <v>1.036923792549069</v>
       </c>
       <c r="F5">
-        <v>1.065121242973447</v>
+        <v>1.046534481283469</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042999099787995</v>
+        <v>1.052493161780126</v>
       </c>
       <c r="J5">
-        <v>1.05074785173712</v>
+        <v>1.04508617375704</v>
       </c>
       <c r="K5">
-        <v>1.054372039972501</v>
+        <v>1.050420658705356</v>
       </c>
       <c r="L5">
-        <v>1.060809819881572</v>
+        <v>1.046382148552561</v>
       </c>
       <c r="M5">
-        <v>1.067483508779871</v>
+        <v>1.055890580802902</v>
       </c>
       <c r="N5">
-        <v>1.020770728837851</v>
+        <v>1.018674766786389</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04640403178009</v>
+        <v>1.026976960909324</v>
       </c>
       <c r="D6">
-        <v>1.0520122931589</v>
+        <v>1.041154491981345</v>
       </c>
       <c r="E6">
-        <v>1.058475199432259</v>
+        <v>1.037104801771191</v>
       </c>
       <c r="F6">
-        <v>1.065163996986876</v>
+        <v>1.046715957394822</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043009490088299</v>
+        <v>1.052550718292283</v>
       </c>
       <c r="J6">
-        <v>1.050774473773618</v>
+        <v>1.045204333090271</v>
       </c>
       <c r="K6">
-        <v>1.054396960663526</v>
+        <v>1.050531819190277</v>
       </c>
       <c r="L6">
-        <v>1.060844557437701</v>
+        <v>1.046525295471651</v>
       </c>
       <c r="M6">
-        <v>1.067517720211765</v>
+        <v>1.05603466906033</v>
       </c>
       <c r="N6">
-        <v>1.020779685968633</v>
+        <v>1.018714890695981</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046109707712833</v>
+        <v>1.025624531227542</v>
       </c>
       <c r="D7">
-        <v>1.051781556950232</v>
+        <v>1.040130432082666</v>
       </c>
       <c r="E7">
-        <v>1.058177274895058</v>
+        <v>1.035856821303163</v>
       </c>
       <c r="F7">
-        <v>1.064870091286459</v>
+        <v>1.045464560121177</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042937963986389</v>
+        <v>1.052152919712033</v>
       </c>
       <c r="J7">
-        <v>1.050591393412271</v>
+        <v>1.044388860653262</v>
       </c>
       <c r="K7">
-        <v>1.054225576457745</v>
+        <v>1.049764644756018</v>
       </c>
       <c r="L7">
-        <v>1.060605744530591</v>
+        <v>1.045538058627749</v>
       </c>
       <c r="M7">
-        <v>1.067282503545286</v>
+        <v>1.055040740330005</v>
       </c>
       <c r="N7">
-        <v>1.020718082102124</v>
+        <v>1.01843795602325</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04488022904856</v>
+        <v>1.019856618702946</v>
       </c>
       <c r="D8">
-        <v>1.050817863821349</v>
+        <v>1.035769915606684</v>
       </c>
       <c r="E8">
-        <v>1.056934504525384</v>
+        <v>1.030555170852942</v>
       </c>
       <c r="F8">
-        <v>1.063643590486661</v>
+        <v>1.040143413713892</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042636996305927</v>
+        <v>1.050438663963377</v>
       </c>
       <c r="J8">
-        <v>1.049825600522896</v>
+        <v>1.04090409408827</v>
       </c>
       <c r="K8">
-        <v>1.053508606625729</v>
+        <v>1.046486215863432</v>
       </c>
       <c r="L8">
-        <v>1.05960877665347</v>
+        <v>1.041336567514629</v>
       </c>
       <c r="M8">
-        <v>1.066300032075444</v>
+        <v>1.050805745079707</v>
       </c>
       <c r="N8">
-        <v>1.020460268185325</v>
+        <v>1.017254029158429</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042716615432952</v>
+        <v>1.009226365370934</v>
       </c>
       <c r="D9">
-        <v>1.049122616201734</v>
+        <v>1.027763510403922</v>
       </c>
       <c r="E9">
-        <v>1.05475412143734</v>
+        <v>1.020866786702519</v>
       </c>
       <c r="F9">
-        <v>1.061489884611289</v>
+        <v>1.030400257024224</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042099147720163</v>
+        <v>1.047213737698941</v>
       </c>
       <c r="J9">
-        <v>1.048474176306849</v>
+        <v>1.034457471561204</v>
       </c>
       <c r="K9">
-        <v>1.052242972270278</v>
+        <v>1.040421649515893</v>
       </c>
       <c r="L9">
-        <v>1.057856710526505</v>
+        <v>1.033630149539184</v>
       </c>
       <c r="M9">
-        <v>1.064571493291316</v>
+        <v>1.0430186409742</v>
       </c>
       <c r="N9">
-        <v>1.020004787031799</v>
+        <v>1.015062200531111</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041276204106728</v>
+        <v>1.001792316946326</v>
       </c>
       <c r="D10">
-        <v>1.047994482265507</v>
+        <v>1.022188116696237</v>
       </c>
       <c r="E10">
-        <v>1.053307027648844</v>
+        <v>1.014150176101681</v>
       </c>
       <c r="F10">
-        <v>1.060059236706445</v>
+        <v>1.023632603739507</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041735567279536</v>
+        <v>1.044916365897042</v>
       </c>
       <c r="J10">
-        <v>1.047571938062598</v>
+        <v>1.0299350037684</v>
       </c>
       <c r="K10">
-        <v>1.051397766320088</v>
+        <v>1.036167990027921</v>
       </c>
       <c r="L10">
-        <v>1.056691908905542</v>
+        <v>1.028268559856793</v>
       </c>
       <c r="M10">
-        <v>1.063421020828241</v>
+        <v>1.037587883261575</v>
       </c>
       <c r="N10">
-        <v>1.019700362262414</v>
+        <v>1.013523746821365</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040652975785024</v>
+        <v>0.9984828145883986</v>
       </c>
       <c r="D11">
-        <v>1.047506486160845</v>
+        <v>1.019712484944085</v>
       </c>
       <c r="E11">
-        <v>1.052681977832701</v>
+        <v>1.011174704086048</v>
       </c>
       <c r="F11">
-        <v>1.059440990596968</v>
+        <v>1.020631384805933</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041576949983155</v>
+        <v>1.043884163971924</v>
       </c>
       <c r="J11">
-        <v>1.047180964730293</v>
+        <v>1.027918846740286</v>
       </c>
       <c r="K11">
-        <v>1.051031450921385</v>
+        <v>1.034271987302478</v>
       </c>
       <c r="L11">
-        <v>1.056188320576029</v>
+        <v>1.025888914557662</v>
       </c>
       <c r="M11">
-        <v>1.062923315701244</v>
+        <v>1.035174436670064</v>
       </c>
       <c r="N11">
-        <v>1.01956836491176</v>
+        <v>1.012837754348367</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040421553945389</v>
+        <v>0.9972391730571449</v>
       </c>
       <c r="D12">
-        <v>1.04732529811328</v>
+        <v>1.01878323291176</v>
       </c>
       <c r="E12">
-        <v>1.052450040946865</v>
+        <v>1.010058847716072</v>
       </c>
       <c r="F12">
-        <v>1.059211533211356</v>
+        <v>1.019505398519262</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041517854981578</v>
+        <v>1.043494910664698</v>
       </c>
       <c r="J12">
-        <v>1.047035695911763</v>
+        <v>1.027160837382281</v>
       </c>
       <c r="K12">
-        <v>1.050895335578932</v>
+        <v>1.033559211394328</v>
       </c>
       <c r="L12">
-        <v>1.056001383555489</v>
+        <v>1.024995840493065</v>
       </c>
       <c r="M12">
-        <v>1.062738515675676</v>
+        <v>1.034268209672827</v>
       </c>
       <c r="N12">
-        <v>1.019519308632694</v>
+        <v>1.012579828372755</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0404711914018</v>
+        <v>0.9975066000920698</v>
       </c>
       <c r="D13">
-        <v>1.047364160129876</v>
+        <v>1.018983006939585</v>
       </c>
       <c r="E13">
-        <v>1.052499781564926</v>
+        <v>1.010298693065755</v>
       </c>
       <c r="F13">
-        <v>1.059260744126751</v>
+        <v>1.01974744271811</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041530539083216</v>
+        <v>1.043578675213354</v>
       </c>
       <c r="J13">
-        <v>1.047066858539402</v>
+        <v>1.027323852672197</v>
       </c>
       <c r="K13">
-        <v>1.050924535006603</v>
+        <v>1.033712496034618</v>
       </c>
       <c r="L13">
-        <v>1.056041476817831</v>
+        <v>1.025187830287803</v>
       </c>
       <c r="M13">
-        <v>1.062778152730477</v>
+        <v>1.03446304818315</v>
       </c>
       <c r="N13">
-        <v>1.019529832568211</v>
+        <v>1.01263529778271</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.04063384489103</v>
+        <v>0.9983803119268927</v>
       </c>
       <c r="D14">
-        <v>1.047491507553875</v>
+        <v>1.019635873165734</v>
       </c>
       <c r="E14">
-        <v>1.052662801066774</v>
+        <v>1.011082687261821</v>
       </c>
       <c r="F14">
-        <v>1.059422019760375</v>
+        <v>1.020538542307319</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041572068789473</v>
+        <v>1.043852108814548</v>
       </c>
       <c r="J14">
-        <v>1.047168957655133</v>
+        <v>1.027856378002925</v>
       </c>
       <c r="K14">
-        <v>1.051020200588955</v>
+        <v>1.034213245048899</v>
       </c>
       <c r="L14">
-        <v>1.056172865887567</v>
+        <v>1.025815282490374</v>
       </c>
       <c r="M14">
-        <v>1.062908038642516</v>
+        <v>1.035099729684342</v>
       </c>
       <c r="N14">
-        <v>1.019564310444635</v>
+        <v>1.012816498542422</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040734070762085</v>
+        <v>0.9989167105589402</v>
       </c>
       <c r="D15">
-        <v>1.047569980539865</v>
+        <v>1.020036827016457</v>
       </c>
       <c r="E15">
-        <v>1.052763273869745</v>
+        <v>1.011564305941612</v>
       </c>
       <c r="F15">
-        <v>1.059521411787852</v>
+        <v>1.021024463218007</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041597633109734</v>
+        <v>1.044019798439801</v>
       </c>
       <c r="J15">
-        <v>1.047231858497532</v>
+        <v>1.028183263046343</v>
       </c>
       <c r="K15">
-        <v>1.051079136781241</v>
+        <v>1.034520632719161</v>
       </c>
       <c r="L15">
-        <v>1.056253834714707</v>
+        <v>1.026200647786878</v>
       </c>
       <c r="M15">
-        <v>1.062988074925936</v>
+        <v>1.035490701668808</v>
       </c>
       <c r="N15">
-        <v>1.019585549890386</v>
+        <v>1.012927724873056</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041317575892687</v>
+        <v>1.002009988187145</v>
       </c>
       <c r="D16">
-        <v>1.048026879466093</v>
+        <v>1.022351082961992</v>
       </c>
       <c r="E16">
-        <v>1.05334854294887</v>
+        <v>1.014346188001608</v>
       </c>
       <c r="F16">
-        <v>1.060100293777883</v>
+        <v>1.023830246016996</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041746069271624</v>
+        <v>1.044984062387144</v>
       </c>
       <c r="J16">
-        <v>1.047597879467741</v>
+        <v>1.030067554380931</v>
       </c>
       <c r="K16">
-        <v>1.05142207047467</v>
+        <v>1.036292648772158</v>
       </c>
       <c r="L16">
-        <v>1.05672534690401</v>
+        <v>1.028425228647097</v>
       </c>
       <c r="M16">
-        <v>1.063454061606118</v>
+        <v>1.037746712603838</v>
       </c>
       <c r="N16">
-        <v>1.019709118743284</v>
+        <v>1.0135688444531</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041683722198276</v>
+        <v>1.003925576032635</v>
       </c>
       <c r="D17">
-        <v>1.048313613099822</v>
+        <v>1.023785987315733</v>
       </c>
       <c r="E17">
-        <v>1.053716083087756</v>
+        <v>1.01607283966348</v>
       </c>
       <c r="F17">
-        <v>1.060463742466731</v>
+        <v>1.025570901356444</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041838862559116</v>
+        <v>1.045578745914649</v>
       </c>
       <c r="J17">
-        <v>1.047827395537573</v>
+        <v>1.031233731512821</v>
       </c>
       <c r="K17">
-        <v>1.051637094517254</v>
+        <v>1.03738943088133</v>
       </c>
       <c r="L17">
-        <v>1.057021323271671</v>
+        <v>1.029804802962987</v>
       </c>
       <c r="M17">
-        <v>1.06374648591597</v>
+        <v>1.039144958165273</v>
       </c>
       <c r="N17">
-        <v>1.019786582445908</v>
+        <v>1.013965597518718</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04189733532726</v>
+        <v>1.005034226171816</v>
       </c>
       <c r="D18">
-        <v>1.048480907488575</v>
+        <v>1.024617046385984</v>
       </c>
       <c r="E18">
-        <v>1.053930612622336</v>
+        <v>1.017073527554749</v>
       </c>
       <c r="F18">
-        <v>1.060675854896743</v>
+        <v>1.026579407004971</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04189287298713</v>
+        <v>1.045922019776878</v>
       </c>
       <c r="J18">
-        <v>1.047961239544468</v>
+        <v>1.031908386365378</v>
       </c>
       <c r="K18">
-        <v>1.051762481955806</v>
+        <v>1.038023968714647</v>
       </c>
       <c r="L18">
-        <v>1.057194036311963</v>
+        <v>1.030603916884361</v>
       </c>
       <c r="M18">
-        <v>1.063917096088853</v>
+        <v>1.039954592501963</v>
       </c>
       <c r="N18">
-        <v>1.019831748377179</v>
+        <v>1.014195113204819</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041970179690206</v>
+        <v>1.005410796811386</v>
       </c>
       <c r="D19">
-        <v>1.048537958570586</v>
+        <v>1.02489942940971</v>
       </c>
       <c r="E19">
-        <v>1.054003786980948</v>
+        <v>1.017413660177743</v>
       </c>
       <c r="F19">
-        <v>1.06074819988971</v>
+        <v>1.02692214639844</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041911269740604</v>
+        <v>1.046038464106424</v>
       </c>
       <c r="J19">
-        <v>1.048006871974296</v>
+        <v>1.032137496053072</v>
       </c>
       <c r="K19">
-        <v>1.051805230300003</v>
+        <v>1.038239459473278</v>
       </c>
       <c r="L19">
-        <v>1.057252939687191</v>
+        <v>1.030875462702305</v>
       </c>
       <c r="M19">
-        <v>1.063975277180404</v>
+        <v>1.040229663269521</v>
       </c>
       <c r="N19">
-        <v>1.019847145840845</v>
+        <v>1.014273053276668</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041644433381329</v>
+        <v>1.003720954616234</v>
       </c>
       <c r="D20">
-        <v>1.048282844370704</v>
+        <v>1.023632648776484</v>
       </c>
       <c r="E20">
-        <v>1.0536766340265</v>
+        <v>1.015888256120616</v>
       </c>
       <c r="F20">
-        <v>1.060424735547669</v>
+        <v>1.025384851720233</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041828918539333</v>
+        <v>1.045515315423196</v>
       </c>
       <c r="J20">
-        <v>1.047802773611346</v>
+        <v>1.031109189429498</v>
       </c>
       <c r="K20">
-        <v>1.051614027821898</v>
+        <v>1.03727229673223</v>
       </c>
       <c r="L20">
-        <v>1.056989560039207</v>
+        <v>1.029657366808373</v>
       </c>
       <c r="M20">
-        <v>1.063715106993419</v>
+        <v>1.038995557187628</v>
       </c>
       <c r="N20">
-        <v>1.019778273114183</v>
+        <v>1.013923227544584</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040585945472598</v>
+        <v>0.9981234278193555</v>
       </c>
       <c r="D21">
-        <v>1.047454004818649</v>
+        <v>1.019443891733064</v>
       </c>
       <c r="E21">
-        <v>1.052614789403721</v>
+        <v>1.010852118624103</v>
       </c>
       <c r="F21">
-        <v>1.05937452293981</v>
+        <v>1.020305897101383</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041559844221299</v>
+        <v>1.043771752737944</v>
       </c>
       <c r="J21">
-        <v>1.047138893215416</v>
+        <v>1.027699817809498</v>
       </c>
       <c r="K21">
-        <v>1.050992030818101</v>
+        <v>1.034066025228162</v>
       </c>
       <c r="L21">
-        <v>1.056134171811707</v>
+        <v>1.025630770276044</v>
       </c>
       <c r="M21">
-        <v>1.06286978854212</v>
+        <v>1.034912516329859</v>
       </c>
       <c r="N21">
-        <v>1.019554158300298</v>
+        <v>1.012763226660349</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039920854387924</v>
+        <v>0.9945206363149202</v>
       </c>
       <c r="D22">
-        <v>1.046933317583688</v>
+        <v>1.016753927659652</v>
       </c>
       <c r="E22">
-        <v>1.051948522660767</v>
+        <v>1.007623879088641</v>
       </c>
       <c r="F22">
-        <v>1.058715293730852</v>
+        <v>1.017047449448912</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041389639946591</v>
+        <v>1.042641550857942</v>
       </c>
       <c r="J22">
-        <v>1.046721231625498</v>
+        <v>1.02550322230836</v>
       </c>
       <c r="K22">
-        <v>1.05060067072618</v>
+        <v>1.032000635411469</v>
       </c>
       <c r="L22">
-        <v>1.055597039187753</v>
+        <v>1.023045803417095</v>
       </c>
       <c r="M22">
-        <v>1.062338707804912</v>
+        <v>1.032288592396895</v>
       </c>
       <c r="N22">
-        <v>1.019413094787238</v>
+        <v>1.012015773795007</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040273391426871</v>
+        <v>0.9964387132025395</v>
       </c>
       <c r="D23">
-        <v>1.047209301868312</v>
+        <v>1.018185429261318</v>
       </c>
       <c r="E23">
-        <v>1.052301594168849</v>
+        <v>1.009341281932534</v>
       </c>
       <c r="F23">
-        <v>1.059064660669376</v>
+        <v>1.018781184468619</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041479965594965</v>
+        <v>1.043243989919988</v>
       </c>
       <c r="J23">
-        <v>1.046942665680919</v>
+        <v>1.02667284970984</v>
       </c>
       <c r="K23">
-        <v>1.05080816490235</v>
+        <v>1.033100362134246</v>
       </c>
       <c r="L23">
-        <v>1.055881718142756</v>
+        <v>1.024421351414586</v>
       </c>
       <c r="M23">
-        <v>1.062620205022026</v>
+        <v>1.033685127805705</v>
       </c>
       <c r="N23">
-        <v>1.019487889663869</v>
+        <v>1.012413778405737</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041662186163891</v>
+        <v>1.00381344099536</v>
       </c>
       <c r="D24">
-        <v>1.048296747288303</v>
+        <v>1.02370195405032</v>
       </c>
       <c r="E24">
-        <v>1.05369445889715</v>
+        <v>1.01597168133673</v>
       </c>
       <c r="F24">
-        <v>1.060442360727933</v>
+        <v>1.0254689404821</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041833412167127</v>
+        <v>1.045543988025115</v>
       </c>
       <c r="J24">
-        <v>1.047813899289134</v>
+        <v>1.031165481776942</v>
       </c>
       <c r="K24">
-        <v>1.051624450768977</v>
+        <v>1.037325240643612</v>
       </c>
       <c r="L24">
-        <v>1.057003912245001</v>
+        <v>1.029724004036132</v>
       </c>
       <c r="M24">
-        <v>1.063729285641924</v>
+        <v>1.039063083376957</v>
       </c>
       <c r="N24">
-        <v>1.019782027797119</v>
+        <v>1.013942378584965</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043275613570529</v>
+        <v>1.012033145303103</v>
       </c>
       <c r="D25">
-        <v>1.049560526162298</v>
+        <v>1.029873662006368</v>
       </c>
       <c r="E25">
-        <v>1.055316664019496</v>
+        <v>1.023414967688692</v>
       </c>
       <c r="F25">
-        <v>1.062045766509188</v>
+        <v>1.032965095952105</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042239080648844</v>
+        <v>1.048072660194123</v>
       </c>
       <c r="J25">
-        <v>1.048823783081921</v>
+        <v>1.036162223037828</v>
       </c>
       <c r="K25">
-        <v>1.052570428835151</v>
+        <v>1.042025275431462</v>
       </c>
       <c r="L25">
-        <v>1.058309095237997</v>
+        <v>1.035660353806426</v>
       </c>
       <c r="M25">
-        <v>1.065018034615367</v>
+        <v>1.045072350633765</v>
       </c>
       <c r="N25">
-        <v>1.020122677330079</v>
+        <v>1.015641972685511</v>
       </c>
     </row>
   </sheetData>
